--- a/EYZWG9_0430/eyzwg9_0430.xlsx
+++ b/EYZWG9_0430/eyzwg9_0430.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OKGitOS\EYZWG9_0430\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79336C67-1DDB-4B53-ACA3-93C458D5ABA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEEC425-CC10-42C5-9100-FC0216E8DE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{681E0FD9-05CF-4F9C-987B-3DD6F1DFDBB1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t>FIRST  FIT</t>
   </si>
@@ -325,6 +325,205 @@
   <si>
     <t>BEST FIT</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">24 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[6]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 20 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[5]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,40 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[35]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 40,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[5]</t>
+    </r>
+  </si>
+  <si>
+    <t>WORST FIT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[15]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 40</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [35]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 24 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[11]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 40</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [5]</t>
+    </r>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Worst</t>
+  </si>
+  <si>
+    <t>1.igény</t>
+  </si>
+  <si>
+    <t>1. igény</t>
+  </si>
 </sst>
 </file>
 
@@ -333,7 +532,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +577,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -510,23 +719,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -535,35 +742,46 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
@@ -580,6 +798,957 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Elveszett memóriaterület</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$D$69:$G$69</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>First</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Next</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Best</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Worst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$D$70:$G$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25779999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25779999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF66-41C0-8A82-D0424BC73393}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1028468879"/>
+        <c:axId val="1028470319"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1028468879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1028470319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1028470319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1028468879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F147F0E4-3775-8275-A084-ADAD55D752B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -879,10 +2048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DD6637-AE8C-4A2C-A7A4-58911CD5DF3C}">
-  <dimension ref="A5:Q50"/>
+  <dimension ref="A5:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B63" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,25 +2077,25 @@
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="1">
         <v>30</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="1">
         <v>35</v>
       </c>
-      <c r="E6" s="6">
-        <v>15</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="1">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1">
         <v>25</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="1">
         <v>75</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -943,25 +2112,25 @@
       <c r="A7" s="5">
         <v>39</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="1">
         <v>40</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>30</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7">
         <v>35</v>
       </c>
-      <c r="E7" s="8">
-        <v>15</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
         <v>25</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="22">
         <v>45</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -998,25 +2167,25 @@
       <c r="A8" s="5">
         <v>40</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="1">
         <v>40</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>30</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8">
         <v>35</v>
       </c>
-      <c r="E8" s="8">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
         <v>25</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8">
         <v>75</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="14" t="s">
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -1045,28 +2214,28 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="28">
         <v>33</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="29">
         <v>36</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <v>30</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>35</v>
       </c>
-      <c r="E9" s="18">
-        <v>15</v>
-      </c>
-      <c r="F9" s="18">
+      <c r="E9" s="16">
+        <v>15</v>
+      </c>
+      <c r="F9" s="16">
         <v>25</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="16">
         <v>75</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <v>45</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1077,25 +2246,25 @@
       <c r="A10" s="5">
         <v>20</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="1">
         <v>20</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10">
         <v>35</v>
       </c>
-      <c r="E10" s="8">
-        <v>15</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
         <v>25</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10">
         <v>75</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <v>45</v>
       </c>
       <c r="K10">
@@ -1103,28 +2272,28 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="A11" s="18">
         <v>21</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="19">
         <v>24</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>30</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="11">
-        <v>15</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="E11" s="9">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9">
         <v>25</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>75</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <v>45</v>
       </c>
       <c r="K11">
@@ -1132,7 +2301,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K12" s="28">
+      <c r="K12" s="16">
         <v>3</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -1153,12 +2322,12 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="J14" s="29">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="J14" s="24">
         <f>(Q7+Q8+Q12)/SUM(C6:H6)</f>
         <v>0.25777777777777777</v>
       </c>
@@ -1175,30 +2344,30 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="25">
         <v>10</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="25">
         <v>11</v>
       </c>
-      <c r="D17" s="30">
-        <v>15</v>
-      </c>
-      <c r="E17" s="30">
+      <c r="D17" s="25">
+        <v>15</v>
+      </c>
+      <c r="E17" s="25">
         <v>25</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="25">
         <v>35</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1206,11 +2375,11 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="H20" s="11"/>
+      <c r="B20" s="8"/>
+      <c r="H20" s="9"/>
       <c r="M20">
         <v>20</v>
       </c>
@@ -1219,54 +2388,54 @@
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="26">
         <v>30</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="26">
         <v>35</v>
       </c>
-      <c r="E21" s="32">
-        <v>15</v>
-      </c>
-      <c r="F21" s="32">
+      <c r="E21" s="26">
+        <v>15</v>
+      </c>
+      <c r="F21" s="26">
         <v>25</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="26">
         <v>75</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>45</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="1">
         <f>MOD(B32,4)</f>
         <v>2</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L21" s="1">
         <f t="shared" ref="L21:O21" si="1">MOD(C32,4)</f>
         <v>3</v>
       </c>
-      <c r="M21" s="26">
+      <c r="M21" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="N21" s="26">
+      <c r="N21" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O21" s="26">
+      <c r="O21" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P21" s="26">
+      <c r="P21" s="1">
         <v>1</v>
       </c>
-      <c r="Q21" s="26">
+      <c r="Q21" s="1">
         <v>13</v>
       </c>
     </row>
@@ -1274,25 +2443,25 @@
       <c r="A22" s="5">
         <v>39</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="1">
         <v>40</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22">
         <v>30</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22">
         <v>35</v>
       </c>
-      <c r="E22" s="8">
-        <v>15</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
         <v>25</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="12">
         <v>40.35</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="22">
         <v>45</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -1324,25 +2493,25 @@
       <c r="A23" s="5">
         <v>40</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="1">
         <v>40</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23">
         <v>30</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23">
         <v>35</v>
       </c>
-      <c r="E23" s="8">
-        <v>15</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
         <v>25</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23">
         <v>75</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="30">
         <v>40.5</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1351,28 +2520,28 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
+      <c r="A24" s="28">
         <v>33</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="29">
         <v>36</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="16">
         <v>30</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="16">
         <v>35</v>
       </c>
-      <c r="E24" s="18">
-        <v>15</v>
-      </c>
-      <c r="F24" s="18">
+      <c r="E24" s="16">
+        <v>15</v>
+      </c>
+      <c r="F24" s="16">
         <v>25</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="16">
         <v>75</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="32">
         <v>45</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1384,25 +2553,25 @@
       <c r="A25" s="5">
         <v>20</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="1">
         <v>20</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="11">
         <v>20.100000000000001</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25">
         <v>35</v>
       </c>
-      <c r="E25" s="8">
-        <v>15</v>
-      </c>
-      <c r="F25" s="8">
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
         <v>25</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25">
         <v>75</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="22">
         <v>45</v>
       </c>
       <c r="K25">
@@ -1411,28 +2580,28 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="36">
+      <c r="A26" s="18">
         <v>21</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="19">
         <v>24</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26">
         <v>30</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="31">
         <v>24.11</v>
       </c>
-      <c r="E26" s="11">
-        <v>15</v>
-      </c>
-      <c r="F26" s="11">
+      <c r="E26" s="9">
+        <v>15</v>
+      </c>
+      <c r="F26" s="9">
         <v>25</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="9">
         <v>75</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="22">
         <v>45</v>
       </c>
       <c r="K26">
@@ -1445,8 +2614,11 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="K27" s="28">
+      <c r="K27" s="16">
         <v>3</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="Q27" s="1"/>
     </row>
@@ -1463,7 +2635,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="J29" s="29">
+      <c r="J29" s="24">
         <f>(Q21+Q22+Q26)/SUM(C21:H21)</f>
         <v>0.25777777777777777</v>
       </c>
@@ -1472,140 +2644,183 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="25">
         <v>10</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="25">
         <v>11</v>
       </c>
-      <c r="D32" s="30">
-        <v>15</v>
-      </c>
-      <c r="E32" s="30">
+      <c r="D32" s="25">
+        <v>15</v>
+      </c>
+      <c r="E32" s="25">
         <v>25</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="25">
         <v>35</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="23" t="s">
         <v>10</v>
       </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="H36" s="11"/>
+      <c r="B36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="M36">
+        <v>20</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="26">
         <v>30</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="26">
         <v>35</v>
       </c>
-      <c r="E37" s="32">
-        <v>15</v>
-      </c>
-      <c r="F37" s="32">
+      <c r="E37" s="26">
+        <v>15</v>
+      </c>
+      <c r="F37" s="26">
         <v>25</v>
       </c>
-      <c r="G37" s="32">
+      <c r="G37" s="26">
         <v>75</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <v>45</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
+      <c r="K37" s="1">
+        <v>2</v>
+      </c>
+      <c r="L37" s="1">
+        <v>3</v>
+      </c>
+      <c r="M37" s="1">
+        <v>3</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1</v>
+      </c>
+      <c r="O37" s="1">
+        <v>3</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>39</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="1">
         <v>40</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38">
         <v>30</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38">
         <v>35</v>
       </c>
-      <c r="E38" s="8">
-        <v>15</v>
-      </c>
-      <c r="F38" s="8">
+      <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="F38">
         <v>25</v>
       </c>
-      <c r="G38" s="31">
+      <c r="G38">
         <v>75</v>
       </c>
-      <c r="H38" s="25">
-        <v>45</v>
+      <c r="H38" s="30">
+        <v>40.5</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q38" s="1"/>
+      <c r="K38">
+        <v>6</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>15</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>31</v>
+      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>40</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="1">
         <v>40</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39">
         <v>30</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39">
         <v>35</v>
       </c>
-      <c r="E39" s="8">
-        <v>15</v>
-      </c>
-      <c r="F39" s="8">
+      <c r="E39">
+        <v>15</v>
+      </c>
+      <c r="F39">
         <v>25</v>
       </c>
-      <c r="G39" s="23">
-        <v>75</v>
-      </c>
-      <c r="H39" s="25">
+      <c r="G39" s="12">
+        <v>40.35</v>
+      </c>
+      <c r="H39" s="22">
         <v>45</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -1614,28 +2829,28 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="38">
+      <c r="A40" s="28">
         <v>33</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="29">
         <v>36</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="16">
         <v>30</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="16">
         <v>35</v>
       </c>
-      <c r="E40" s="23">
-        <v>15</v>
-      </c>
-      <c r="F40" s="23">
+      <c r="E40" s="16">
+        <v>15</v>
+      </c>
+      <c r="F40" s="16">
         <v>25</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="16">
         <v>75</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="32">
         <v>45</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -1647,99 +2862,481 @@
       <c r="A41" s="5">
         <v>20</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="1">
         <v>20</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41">
         <v>30</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41">
         <v>35</v>
       </c>
-      <c r="E41" s="8">
-        <v>15</v>
-      </c>
-      <c r="F41" s="8">
+      <c r="E41">
+        <v>15</v>
+      </c>
+      <c r="F41" s="12">
+        <v>20.5</v>
+      </c>
+      <c r="G41">
+        <v>75</v>
+      </c>
+      <c r="H41" s="22">
+        <v>45</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="18">
+        <v>21</v>
+      </c>
+      <c r="B42" s="19">
+        <v>24</v>
+      </c>
+      <c r="C42" s="12">
+        <v>24.6</v>
+      </c>
+      <c r="D42">
+        <v>35</v>
+      </c>
+      <c r="E42" s="9">
+        <v>15</v>
+      </c>
+      <c r="F42" s="9">
         <v>25</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G42" s="9">
         <v>75</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H42" s="22">
         <v>45</v>
       </c>
-      <c r="Q41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="36">
-        <v>21</v>
-      </c>
-      <c r="B42" s="37">
-        <v>24</v>
-      </c>
-      <c r="C42" s="8">
-        <v>30</v>
-      </c>
-      <c r="D42" s="8">
-        <v>35</v>
-      </c>
-      <c r="E42" s="11">
-        <v>15</v>
-      </c>
-      <c r="F42" s="11">
-        <v>25</v>
-      </c>
-      <c r="G42" s="11">
-        <v>75</v>
-      </c>
-      <c r="H42" s="25">
-        <v>45</v>
-      </c>
-      <c r="Q42" s="1"/>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="K43" s="42"/>
+      <c r="K43" s="16">
+        <v>3</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q44" s="1"/>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>58</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="4"/>
-      <c r="J45" s="29"/>
+      <c r="J45" s="24">
+        <f>(Q37+Q38+Q42)/SUM(C37:H37)</f>
+        <v>0.21333333333333335</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="10"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+      <c r="B48" s="25"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
+      <c r="C49" s="25">
+        <v>6</v>
+      </c>
+      <c r="D49" s="25">
+        <v>35</v>
+      </c>
+      <c r="E49" s="25">
+        <v>15</v>
+      </c>
+      <c r="F49" s="25">
+        <v>25</v>
+      </c>
+      <c r="G49" s="25">
+        <v>75</v>
+      </c>
+      <c r="H49" s="25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="26">
+        <v>30</v>
+      </c>
+      <c r="D53" s="26">
+        <v>35</v>
+      </c>
+      <c r="E53" s="26">
+        <v>15</v>
+      </c>
+      <c r="F53" s="26">
+        <v>25</v>
+      </c>
+      <c r="G53" s="26">
+        <v>75</v>
+      </c>
+      <c r="H53" s="6">
+        <v>45</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M53">
+        <v>20</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>39</v>
+      </c>
+      <c r="B54" s="1">
+        <v>40</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
+      </c>
+      <c r="D54">
+        <v>35</v>
+      </c>
+      <c r="E54">
+        <v>15</v>
+      </c>
+      <c r="F54">
+        <v>25</v>
+      </c>
+      <c r="G54" s="12">
+        <v>40.35</v>
+      </c>
+      <c r="H54" s="33">
+        <v>45</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="1">
+        <v>2</v>
+      </c>
+      <c r="L54" s="1">
+        <v>3</v>
+      </c>
+      <c r="M54" s="1">
+        <v>3</v>
+      </c>
+      <c r="N54" s="1">
+        <v>1</v>
+      </c>
+      <c r="O54" s="1">
+        <v>3</v>
+      </c>
+      <c r="P54" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>40</v>
+      </c>
+      <c r="B55" s="1">
+        <v>40</v>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+      <c r="D55">
+        <v>35</v>
+      </c>
+      <c r="E55">
+        <v>15</v>
+      </c>
+      <c r="F55">
+        <v>25</v>
+      </c>
+      <c r="G55">
+        <v>75</v>
+      </c>
+      <c r="H55" s="30">
+        <v>40.5</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>15</v>
+      </c>
+      <c r="M55">
+        <v>15</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>11</v>
+      </c>
+      <c r="P55">
+        <v>5</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="28">
+        <v>33</v>
+      </c>
+      <c r="B56" s="29">
+        <v>36</v>
+      </c>
+      <c r="C56" s="16">
+        <v>30</v>
+      </c>
+      <c r="D56" s="16">
+        <v>35</v>
+      </c>
+      <c r="E56" s="16">
+        <v>15</v>
+      </c>
+      <c r="F56" s="16">
+        <v>25</v>
+      </c>
+      <c r="G56" s="16">
+        <v>75</v>
+      </c>
+      <c r="H56" s="32">
+        <v>45</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>20</v>
+      </c>
+      <c r="B57" s="1">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>30</v>
+      </c>
+      <c r="D57" s="12">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="E57">
+        <v>15</v>
+      </c>
+      <c r="F57">
+        <v>25</v>
+      </c>
+      <c r="G57">
+        <v>75</v>
+      </c>
+      <c r="H57" s="22">
+        <v>45</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="1"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="18">
+        <v>21</v>
+      </c>
+      <c r="B58" s="19">
+        <v>24</v>
+      </c>
+      <c r="C58">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>35</v>
+      </c>
+      <c r="E58" s="9">
+        <v>15</v>
+      </c>
+      <c r="F58" s="9">
+        <v>25</v>
+      </c>
+      <c r="G58" s="31">
+        <v>24.11</v>
+      </c>
+      <c r="H58" s="22">
+        <v>45</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="K59" s="16">
+        <v>3</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="J61" s="24">
+        <f>(Q54+Q55+Q58)/SUM(C53:H53)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="10"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="25">
+        <v>30</v>
+      </c>
+      <c r="D65" s="25">
+        <v>15</v>
+      </c>
+      <c r="E65" s="25">
+        <v>25</v>
+      </c>
+      <c r="F65" s="25">
+        <v>11</v>
+      </c>
+      <c r="G65" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D69" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D70" s="37">
+        <v>0.25779999999999997</v>
+      </c>
+      <c r="E70" s="38">
+        <v>0.25779999999999997</v>
+      </c>
+      <c r="F70" s="38">
+        <v>0.21329999999999999</v>
+      </c>
+      <c r="G70" s="39">
+        <v>0.28000000000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>